--- a/chg1_merged_output.xlsx
+++ b/chg1_merged_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,55 +601,50 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>11(e) Terms of Repayment</t>
+          <t>11(f) Nature of Facility</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>11(f) Nature of Facility</t>
+          <t>11(h) Miscellaneous Info</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>11(h) Miscellaneous Info</t>
+          <t>11(i) Margin</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>11(i) Margin</t>
+          <t>11(j) Extent of Charge</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>11(j) Extent of Charge</t>
+          <t>12(b) Instrument Description</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>12(b) Instrument Description</t>
+          <t>12(c) Property Acquisition Date</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>12(c) Property Acquisition Date</t>
+          <t>12(e) Property Particulars</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>12(e) Property Particulars</t>
+          <t>13 Property Details</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>13 Property Details</t>
+          <t>14 Title Document__No. of Documents</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>14 Title Document__No. of Documents</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>14 Title Document__Details</t>
         </is>
@@ -823,55 +818,50 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>(f) Nature of facility FSLD (FRESH) - Rs. 9,00,000.00</t>
+          <t>FSLD (FRESH) - Rs. 9,00,000.00</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>FSLD (FRESH) - Rs. 9,00,000.00</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>The charge Operates on Fixed Deposit of the Company mentioned in point 13 herein below to secure the maximum amount under the Said Limit fixed at Rs. 900,000.00 together with interest, costs and charges thereon</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>The charge Operates on Fixed Deposit of the Company mentioned in point 13 herein below to secure the maximum amount under the Said Limit fixed at Rs. 900,000.00 together with interest, costs and charges thereon</t>
+          <t>(a) Date of Creating Security Interest by actual/ constructive deposit of title deeds within bank/ housing finance company (DD/MM/YYYY)</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>(a) Date of Creating Security Interest by actual/ constructive deposit of title deeds within bank/ housing finance company (DD/MM/YYYY)</t>
+          <t>Memorandum of Charge/Lien over deposits(LD/2128) Acknowledgement of Recipt of copy of documents(LD/2252) Sanction letter(LD/2100A) Attestation Memo</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Memorandum of Charge/Lien over deposits(LD/2128) Acknowledgement of Recipt of copy of documents(LD/2252) Sanction letter(LD/2100A) Attestation Memo</t>
+          <t>/</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>KND 0223.101.13926 Dated:- 06/03/2021 for Principal Value of Rs 10,00,000/-</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>13. “Short particulars of the property or asset(s) charged (including complete address and location of th ©» _—_—_aITE</t>
+          <t>KND 0223.101.13926 Dated:- 06/03/2021 for Principal Value of Rs 10,00,000/-</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>KND 0223.101.13926 Dated:- 06/03/2021 for Principal Value of Rs 10,00,000/-</t>
+          <t>15. (a) Whether any of the property or interest therein under reference is not registered in the name of the company</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
-        <is>
-          <t>15. (a) Whether any of the property or interest therein under reference is not registered in the name of the company</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>Number of title documents deposited by customer</t>
         </is>
